--- a/Doc/Script/Story_Helen.xlsx
+++ b/Doc/Script/Story_Helen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Emotion-Hunt\Doc\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B67D96-8A73-489C-A6A5-68DF0AE42C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8A39B-8BB2-4A0C-B1B4-9B4DB8529379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E63729B3-7233-4E0C-BDBB-9375C38C07A7}"/>
+    <workbookView xWindow="1890" yWindow="1240" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{E63729B3-7233-4E0C-BDBB-9375C38C07A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="127">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,46 @@
   </si>
   <si>
     <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edwin_Basic_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edwin_Basic_Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edwin_Basic_Whine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen_Basic_Angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen_Basic_Sigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen_Basic_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen_Basic_Expressinless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen_Basic_Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2226,20 +2266,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7407C2B8-F3C4-4CB7-8F41-FEEBE808363E}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="10" width="10.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="38.1640625" style="2" customWidth="1"/>
+    <col min="1" max="11" width="10.58203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.4140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="38.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,1048 +2288,1231 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+      <c r="C7" s="2">
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="C8" s="2">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+      <c r="C9" s="2">
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+      <c r="C10" s="2">
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
+      <c r="C12" s="2">
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
+      <c r="C14" s="2">
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
+      <c r="C15" s="2">
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
+      <c r="C17" s="2">
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
+      <c r="C18" s="2">
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
+      <c r="C19" s="2">
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
+      <c r="C20" s="2">
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
+      <c r="C22" s="2">
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
+      <c r="C23" s="2">
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
+      <c r="C24" s="2">
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
+      <c r="C25" s="2">
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
+      <c r="C26" s="2">
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
+      <c r="C27" s="2">
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
+      <c r="C28" s="2">
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
+      <c r="C29" s="2">
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
+      <c r="C30" s="2">
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
+      <c r="C31" s="2">
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
+      <c r="C32" s="2">
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>15</v>
+      <c r="C33" s="2">
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
+      <c r="C34" s="2">
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
+      <c r="C36" s="2">
+        <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
+      <c r="C37" s="2">
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>15</v>
+      <c r="C38" s="2">
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
+      <c r="C39" s="2">
+        <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
